--- a/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
@@ -2352,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43904.0</v>
+        <v>43908.0</v>
       </c>
       <c r="C3" s="62" t="n">
         <v>0.4375</v>
@@ -2364,7 +2364,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43905.0</v>
+        <v>43909.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -2380,7 +2380,7 @@
         <v>112</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43907.0</v>
+        <v>43911.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -2392,7 +2392,7 @@
         <v>137</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43920.0</v>
+        <v>43924.0</v>
       </c>
       <c r="S3" s="73" t="n">
         <v>0.4166666666666667</v>
@@ -2421,7 +2421,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43903.0</v>
+        <v>43907.0</v>
       </c>
       <c r="C4" s="60" t="n">
         <v>0.4791666666666667</v>
@@ -2433,7 +2433,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43904.0</v>
+        <v>43908.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.6875</v>
@@ -2445,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43906.0</v>
+        <v>43910.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.6944444444444444</v>
@@ -2457,7 +2457,7 @@
         <v>112</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43908.0</v>
+        <v>43912.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2469,7 +2469,7 @@
         <v>138</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43912.0</v>
+        <v>43916.0</v>
       </c>
       <c r="S4" s="76" t="n">
         <v>0.5</v>
@@ -2495,7 +2495,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="41" t="n">
-        <v>43899.0</v>
+        <v>43903.0</v>
       </c>
       <c r="C5" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2507,7 +2507,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="42" t="n">
-        <v>43902.0</v>
+        <v>43906.0</v>
       </c>
       <c r="G5" s="44" t="n">
         <v>0.4375</v>
@@ -2519,7 +2519,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="46" t="n">
-        <v>43905.0</v>
+        <v>43909.0</v>
       </c>
       <c r="K5" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2535,7 +2535,7 @@
         <v>147</v>
       </c>
       <c r="R5" s="50" t="n">
-        <v>43906.0</v>
+        <v>43910.0</v>
       </c>
       <c r="S5" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2559,7 +2559,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="41" t="n">
-        <v>43899.0</v>
+        <v>43903.0</v>
       </c>
       <c r="C6" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2571,7 +2571,7 @@
         <v>116</v>
       </c>
       <c r="F6" s="42" t="n">
-        <v>43902.0</v>
+        <v>43906.0</v>
       </c>
       <c r="G6" s="44" t="n">
         <v>0.4375</v>
@@ -2583,7 +2583,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="46" t="n">
-        <v>43905.0</v>
+        <v>43909.0</v>
       </c>
       <c r="K6" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2599,7 +2599,7 @@
         <v>138</v>
       </c>
       <c r="R6" s="50" t="n">
-        <v>43906.0</v>
+        <v>43910.0</v>
       </c>
       <c r="S6" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2625,7 +2625,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="41" t="n">
-        <v>43899.0</v>
+        <v>43903.0</v>
       </c>
       <c r="C7" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2637,7 +2637,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="42" t="n">
-        <v>43902.0</v>
+        <v>43906.0</v>
       </c>
       <c r="G7" s="44" t="n">
         <v>0.4375</v>
@@ -2649,7 +2649,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="46" t="n">
-        <v>43905.0</v>
+        <v>43909.0</v>
       </c>
       <c r="K7" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2663,7 +2663,7 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="50" t="n">
-        <v>43906.0</v>
+        <v>43910.0</v>
       </c>
       <c r="S7" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2689,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="51" t="n">
-        <v>43899.0</v>
+        <v>43903.0</v>
       </c>
       <c r="C8" s="62" t="n">
         <v>0.4444444444444444</v>
@@ -2701,7 +2701,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="42" t="n">
-        <v>43902.0</v>
+        <v>43906.0</v>
       </c>
       <c r="G8" s="44" t="n">
         <v>0.4791666666666667</v>
@@ -2717,7 +2717,7 @@
         <v>112</v>
       </c>
       <c r="N8" s="48" t="n">
-        <v>43907.0</v>
+        <v>43911.0</v>
       </c>
       <c r="O8" s="53" t="n">
         <v>0.4618055555555556</v>
@@ -2729,7 +2729,7 @@
         <v>137</v>
       </c>
       <c r="R8" s="50" t="n">
-        <v>43906.0</v>
+        <v>43910.0</v>
       </c>
       <c r="S8" s="76" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
@@ -2352,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43908.0</v>
+        <v>43909.0</v>
       </c>
       <c r="C3" s="62" t="n">
         <v>0.4375</v>
@@ -2364,7 +2364,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43909.0</v>
+        <v>43910.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -2380,7 +2380,7 @@
         <v>112</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43911.0</v>
+        <v>43912.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -2392,7 +2392,7 @@
         <v>137</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43924.0</v>
+        <v>43925.0</v>
       </c>
       <c r="S3" s="73" t="n">
         <v>0.4166666666666667</v>
@@ -2421,7 +2421,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43907.0</v>
+        <v>43908.0</v>
       </c>
       <c r="C4" s="60" t="n">
         <v>0.4791666666666667</v>
@@ -2433,7 +2433,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43908.0</v>
+        <v>43909.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.6875</v>
@@ -2445,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43910.0</v>
+        <v>43911.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.6944444444444444</v>
@@ -2457,7 +2457,7 @@
         <v>112</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43912.0</v>
+        <v>43913.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2469,7 +2469,7 @@
         <v>138</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43916.0</v>
+        <v>43917.0</v>
       </c>
       <c r="S4" s="76" t="n">
         <v>0.5</v>
@@ -2495,7 +2495,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="41" t="n">
-        <v>43903.0</v>
+        <v>43904.0</v>
       </c>
       <c r="C5" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2507,7 +2507,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="42" t="n">
-        <v>43906.0</v>
+        <v>43907.0</v>
       </c>
       <c r="G5" s="44" t="n">
         <v>0.4375</v>
@@ -2519,7 +2519,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="46" t="n">
-        <v>43909.0</v>
+        <v>43910.0</v>
       </c>
       <c r="K5" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2535,7 +2535,7 @@
         <v>147</v>
       </c>
       <c r="R5" s="50" t="n">
-        <v>43910.0</v>
+        <v>43911.0</v>
       </c>
       <c r="S5" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2559,7 +2559,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="41" t="n">
-        <v>43903.0</v>
+        <v>43904.0</v>
       </c>
       <c r="C6" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2571,7 +2571,7 @@
         <v>116</v>
       </c>
       <c r="F6" s="42" t="n">
-        <v>43906.0</v>
+        <v>43907.0</v>
       </c>
       <c r="G6" s="44" t="n">
         <v>0.4375</v>
@@ -2583,7 +2583,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="46" t="n">
-        <v>43909.0</v>
+        <v>43910.0</v>
       </c>
       <c r="K6" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2599,7 +2599,7 @@
         <v>138</v>
       </c>
       <c r="R6" s="50" t="n">
-        <v>43910.0</v>
+        <v>43911.0</v>
       </c>
       <c r="S6" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2625,7 +2625,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="41" t="n">
-        <v>43903.0</v>
+        <v>43904.0</v>
       </c>
       <c r="C7" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2637,7 +2637,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="42" t="n">
-        <v>43906.0</v>
+        <v>43907.0</v>
       </c>
       <c r="G7" s="44" t="n">
         <v>0.4375</v>
@@ -2649,7 +2649,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="46" t="n">
-        <v>43909.0</v>
+        <v>43910.0</v>
       </c>
       <c r="K7" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2663,7 +2663,7 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="50" t="n">
-        <v>43910.0</v>
+        <v>43911.0</v>
       </c>
       <c r="S7" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2689,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="51" t="n">
-        <v>43903.0</v>
+        <v>43904.0</v>
       </c>
       <c r="C8" s="62" t="n">
         <v>0.4444444444444444</v>
@@ -2701,7 +2701,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="42" t="n">
-        <v>43906.0</v>
+        <v>43907.0</v>
       </c>
       <c r="G8" s="44" t="n">
         <v>0.4791666666666667</v>
@@ -2717,7 +2717,7 @@
         <v>112</v>
       </c>
       <c r="N8" s="48" t="n">
-        <v>43911.0</v>
+        <v>43912.0</v>
       </c>
       <c r="O8" s="53" t="n">
         <v>0.4618055555555556</v>
@@ -2729,7 +2729,7 @@
         <v>137</v>
       </c>
       <c r="R8" s="50" t="n">
-        <v>43910.0</v>
+        <v>43911.0</v>
       </c>
       <c r="S8" s="76" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
@@ -2352,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43909.0</v>
+        <v>43911.0</v>
       </c>
       <c r="C3" s="62" t="n">
         <v>0.4375</v>
@@ -2364,7 +2364,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43910.0</v>
+        <v>43912.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -2380,7 +2380,7 @@
         <v>112</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43912.0</v>
+        <v>43914.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -2392,7 +2392,7 @@
         <v>137</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43925.0</v>
+        <v>43927.0</v>
       </c>
       <c r="S3" s="73" t="n">
         <v>0.4166666666666667</v>
@@ -2421,7 +2421,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43908.0</v>
+        <v>43910.0</v>
       </c>
       <c r="C4" s="60" t="n">
         <v>0.4791666666666667</v>
@@ -2433,7 +2433,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43909.0</v>
+        <v>43911.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.6875</v>
@@ -2445,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43911.0</v>
+        <v>43913.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.6944444444444444</v>
@@ -2457,7 +2457,7 @@
         <v>112</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43913.0</v>
+        <v>43915.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2469,7 +2469,7 @@
         <v>138</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43917.0</v>
+        <v>43919.0</v>
       </c>
       <c r="S4" s="76" t="n">
         <v>0.5</v>
@@ -2495,7 +2495,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="41" t="n">
-        <v>43904.0</v>
+        <v>43906.0</v>
       </c>
       <c r="C5" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2507,7 +2507,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="42" t="n">
-        <v>43907.0</v>
+        <v>43909.0</v>
       </c>
       <c r="G5" s="44" t="n">
         <v>0.4375</v>
@@ -2519,7 +2519,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="46" t="n">
-        <v>43910.0</v>
+        <v>43912.0</v>
       </c>
       <c r="K5" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2535,7 +2535,7 @@
         <v>147</v>
       </c>
       <c r="R5" s="50" t="n">
-        <v>43911.0</v>
+        <v>43913.0</v>
       </c>
       <c r="S5" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2559,7 +2559,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="41" t="n">
-        <v>43904.0</v>
+        <v>43906.0</v>
       </c>
       <c r="C6" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2571,7 +2571,7 @@
         <v>116</v>
       </c>
       <c r="F6" s="42" t="n">
-        <v>43907.0</v>
+        <v>43909.0</v>
       </c>
       <c r="G6" s="44" t="n">
         <v>0.4375</v>
@@ -2583,7 +2583,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="46" t="n">
-        <v>43910.0</v>
+        <v>43912.0</v>
       </c>
       <c r="K6" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2599,7 +2599,7 @@
         <v>138</v>
       </c>
       <c r="R6" s="50" t="n">
-        <v>43911.0</v>
+        <v>43913.0</v>
       </c>
       <c r="S6" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2625,7 +2625,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="41" t="n">
-        <v>43904.0</v>
+        <v>43906.0</v>
       </c>
       <c r="C7" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2637,7 +2637,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="42" t="n">
-        <v>43907.0</v>
+        <v>43909.0</v>
       </c>
       <c r="G7" s="44" t="n">
         <v>0.4375</v>
@@ -2649,7 +2649,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="46" t="n">
-        <v>43910.0</v>
+        <v>43912.0</v>
       </c>
       <c r="K7" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2663,7 +2663,7 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="50" t="n">
-        <v>43911.0</v>
+        <v>43913.0</v>
       </c>
       <c r="S7" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2689,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="51" t="n">
-        <v>43904.0</v>
+        <v>43906.0</v>
       </c>
       <c r="C8" s="62" t="n">
         <v>0.4444444444444444</v>
@@ -2701,7 +2701,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="42" t="n">
-        <v>43907.0</v>
+        <v>43909.0</v>
       </c>
       <c r="G8" s="44" t="n">
         <v>0.4791666666666667</v>
@@ -2717,7 +2717,7 @@
         <v>112</v>
       </c>
       <c r="N8" s="48" t="n">
-        <v>43912.0</v>
+        <v>43914.0</v>
       </c>
       <c r="O8" s="53" t="n">
         <v>0.4618055555555556</v>
@@ -2729,7 +2729,7 @@
         <v>137</v>
       </c>
       <c r="R8" s="50" t="n">
-        <v>43911.0</v>
+        <v>43913.0</v>
       </c>
       <c r="S8" s="76" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
@@ -2352,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43911.0</v>
+        <v>43919.0</v>
       </c>
       <c r="C3" s="62" t="n">
         <v>0.4375</v>
@@ -2364,7 +2364,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43912.0</v>
+        <v>43920.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -2380,7 +2380,7 @@
         <v>112</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43914.0</v>
+        <v>43922.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -2392,7 +2392,7 @@
         <v>137</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43927.0</v>
+        <v>43935.0</v>
       </c>
       <c r="S3" s="73" t="n">
         <v>0.4166666666666667</v>
@@ -2421,7 +2421,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43910.0</v>
+        <v>43918.0</v>
       </c>
       <c r="C4" s="60" t="n">
         <v>0.4791666666666667</v>
@@ -2433,7 +2433,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43911.0</v>
+        <v>43919.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.6875</v>
@@ -2445,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43913.0</v>
+        <v>43921.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.6944444444444444</v>
@@ -2457,7 +2457,7 @@
         <v>112</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43915.0</v>
+        <v>43923.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2469,7 +2469,7 @@
         <v>138</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43919.0</v>
+        <v>43927.0</v>
       </c>
       <c r="S4" s="76" t="n">
         <v>0.5</v>
@@ -2495,7 +2495,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="41" t="n">
-        <v>43906.0</v>
+        <v>43914.0</v>
       </c>
       <c r="C5" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2507,7 +2507,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="42" t="n">
-        <v>43909.0</v>
+        <v>43917.0</v>
       </c>
       <c r="G5" s="44" t="n">
         <v>0.4375</v>
@@ -2519,7 +2519,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="46" t="n">
-        <v>43912.0</v>
+        <v>43920.0</v>
       </c>
       <c r="K5" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2535,7 +2535,7 @@
         <v>147</v>
       </c>
       <c r="R5" s="50" t="n">
-        <v>43913.0</v>
+        <v>43921.0</v>
       </c>
       <c r="S5" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2559,7 +2559,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="41" t="n">
-        <v>43906.0</v>
+        <v>43914.0</v>
       </c>
       <c r="C6" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2571,7 +2571,7 @@
         <v>116</v>
       </c>
       <c r="F6" s="42" t="n">
-        <v>43909.0</v>
+        <v>43917.0</v>
       </c>
       <c r="G6" s="44" t="n">
         <v>0.4375</v>
@@ -2583,7 +2583,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="46" t="n">
-        <v>43912.0</v>
+        <v>43920.0</v>
       </c>
       <c r="K6" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2599,7 +2599,7 @@
         <v>138</v>
       </c>
       <c r="R6" s="50" t="n">
-        <v>43913.0</v>
+        <v>43921.0</v>
       </c>
       <c r="S6" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2625,7 +2625,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="41" t="n">
-        <v>43906.0</v>
+        <v>43914.0</v>
       </c>
       <c r="C7" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2637,7 +2637,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="42" t="n">
-        <v>43909.0</v>
+        <v>43917.0</v>
       </c>
       <c r="G7" s="44" t="n">
         <v>0.4375</v>
@@ -2649,7 +2649,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="46" t="n">
-        <v>43912.0</v>
+        <v>43920.0</v>
       </c>
       <c r="K7" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2663,7 +2663,7 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="50" t="n">
-        <v>43913.0</v>
+        <v>43921.0</v>
       </c>
       <c r="S7" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2689,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="51" t="n">
-        <v>43906.0</v>
+        <v>43914.0</v>
       </c>
       <c r="C8" s="62" t="n">
         <v>0.4444444444444444</v>
@@ -2701,7 +2701,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="42" t="n">
-        <v>43909.0</v>
+        <v>43917.0</v>
       </c>
       <c r="G8" s="44" t="n">
         <v>0.4791666666666667</v>
@@ -2717,7 +2717,7 @@
         <v>112</v>
       </c>
       <c r="N8" s="48" t="n">
-        <v>43914.0</v>
+        <v>43922.0</v>
       </c>
       <c r="O8" s="53" t="n">
         <v>0.4618055555555556</v>
@@ -2729,7 +2729,7 @@
         <v>137</v>
       </c>
       <c r="R8" s="50" t="n">
-        <v>43913.0</v>
+        <v>43921.0</v>
       </c>
       <c r="S8" s="76" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
@@ -2352,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43919.0</v>
+        <v>43922.0</v>
       </c>
       <c r="C3" s="62" t="n">
         <v>0.4375</v>
@@ -2364,7 +2364,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43920.0</v>
+        <v>43923.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -2380,7 +2380,7 @@
         <v>112</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43922.0</v>
+        <v>43925.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -2392,7 +2392,7 @@
         <v>137</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="S3" s="73" t="n">
         <v>0.4166666666666667</v>
@@ -2421,7 +2421,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43918.0</v>
+        <v>43921.0</v>
       </c>
       <c r="C4" s="60" t="n">
         <v>0.4791666666666667</v>
@@ -2433,7 +2433,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43919.0</v>
+        <v>43922.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.6875</v>
@@ -2445,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43921.0</v>
+        <v>43924.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.6944444444444444</v>
@@ -2457,7 +2457,7 @@
         <v>112</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43923.0</v>
+        <v>43926.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2469,7 +2469,7 @@
         <v>138</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43927.0</v>
+        <v>43930.0</v>
       </c>
       <c r="S4" s="76" t="n">
         <v>0.5</v>
@@ -2495,7 +2495,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="41" t="n">
-        <v>43914.0</v>
+        <v>43917.0</v>
       </c>
       <c r="C5" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2507,7 +2507,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="42" t="n">
-        <v>43917.0</v>
+        <v>43920.0</v>
       </c>
       <c r="G5" s="44" t="n">
         <v>0.4375</v>
@@ -2519,7 +2519,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="46" t="n">
-        <v>43920.0</v>
+        <v>43923.0</v>
       </c>
       <c r="K5" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2535,7 +2535,7 @@
         <v>147</v>
       </c>
       <c r="R5" s="50" t="n">
-        <v>43921.0</v>
+        <v>43924.0</v>
       </c>
       <c r="S5" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2559,7 +2559,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="41" t="n">
-        <v>43914.0</v>
+        <v>43917.0</v>
       </c>
       <c r="C6" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2571,7 +2571,7 @@
         <v>116</v>
       </c>
       <c r="F6" s="42" t="n">
-        <v>43917.0</v>
+        <v>43920.0</v>
       </c>
       <c r="G6" s="44" t="n">
         <v>0.4375</v>
@@ -2583,7 +2583,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="46" t="n">
-        <v>43920.0</v>
+        <v>43923.0</v>
       </c>
       <c r="K6" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2599,7 +2599,7 @@
         <v>138</v>
       </c>
       <c r="R6" s="50" t="n">
-        <v>43921.0</v>
+        <v>43924.0</v>
       </c>
       <c r="S6" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2625,7 +2625,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="41" t="n">
-        <v>43914.0</v>
+        <v>43917.0</v>
       </c>
       <c r="C7" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2637,7 +2637,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="42" t="n">
-        <v>43917.0</v>
+        <v>43920.0</v>
       </c>
       <c r="G7" s="44" t="n">
         <v>0.4375</v>
@@ -2649,7 +2649,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="46" t="n">
-        <v>43920.0</v>
+        <v>43923.0</v>
       </c>
       <c r="K7" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2663,7 +2663,7 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="50" t="n">
-        <v>43921.0</v>
+        <v>43924.0</v>
       </c>
       <c r="S7" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2689,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="51" t="n">
-        <v>43914.0</v>
+        <v>43917.0</v>
       </c>
       <c r="C8" s="62" t="n">
         <v>0.4444444444444444</v>
@@ -2701,7 +2701,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="42" t="n">
-        <v>43917.0</v>
+        <v>43920.0</v>
       </c>
       <c r="G8" s="44" t="n">
         <v>0.4791666666666667</v>
@@ -2717,7 +2717,7 @@
         <v>112</v>
       </c>
       <c r="N8" s="48" t="n">
-        <v>43922.0</v>
+        <v>43925.0</v>
       </c>
       <c r="O8" s="53" t="n">
         <v>0.4618055555555556</v>
@@ -2729,7 +2729,7 @@
         <v>137</v>
       </c>
       <c r="R8" s="50" t="n">
-        <v>43921.0</v>
+        <v>43924.0</v>
       </c>
       <c r="S8" s="76" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
@@ -2352,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43922.0</v>
+        <v>43933.0</v>
       </c>
       <c r="C3" s="62" t="n">
         <v>0.4375</v>
@@ -2364,7 +2364,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43923.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -2380,7 +2380,7 @@
         <v>112</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43925.0</v>
+        <v>43936.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -2392,7 +2392,7 @@
         <v>137</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43938.0</v>
+        <v>43949.0</v>
       </c>
       <c r="S3" s="73" t="n">
         <v>0.4166666666666667</v>
@@ -2421,7 +2421,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43921.0</v>
+        <v>43932.0</v>
       </c>
       <c r="C4" s="60" t="n">
         <v>0.4791666666666667</v>
@@ -2433,7 +2433,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43922.0</v>
+        <v>43933.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.6875</v>
@@ -2445,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.6944444444444444</v>
@@ -2457,7 +2457,7 @@
         <v>112</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43926.0</v>
+        <v>43937.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2469,7 +2469,7 @@
         <v>138</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43930.0</v>
+        <v>43941.0</v>
       </c>
       <c r="S4" s="76" t="n">
         <v>0.5</v>
@@ -2495,7 +2495,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="41" t="n">
-        <v>43917.0</v>
+        <v>43928.0</v>
       </c>
       <c r="C5" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2507,7 +2507,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="42" t="n">
-        <v>43920.0</v>
+        <v>43931.0</v>
       </c>
       <c r="G5" s="44" t="n">
         <v>0.4375</v>
@@ -2519,7 +2519,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="46" t="n">
-        <v>43923.0</v>
+        <v>43934.0</v>
       </c>
       <c r="K5" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2535,7 +2535,7 @@
         <v>147</v>
       </c>
       <c r="R5" s="50" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="S5" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2559,7 +2559,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="41" t="n">
-        <v>43917.0</v>
+        <v>43928.0</v>
       </c>
       <c r="C6" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2571,7 +2571,7 @@
         <v>116</v>
       </c>
       <c r="F6" s="42" t="n">
-        <v>43920.0</v>
+        <v>43931.0</v>
       </c>
       <c r="G6" s="44" t="n">
         <v>0.4375</v>
@@ -2583,7 +2583,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="46" t="n">
-        <v>43923.0</v>
+        <v>43934.0</v>
       </c>
       <c r="K6" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2599,7 +2599,7 @@
         <v>138</v>
       </c>
       <c r="R6" s="50" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="S6" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2625,7 +2625,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="41" t="n">
-        <v>43917.0</v>
+        <v>43928.0</v>
       </c>
       <c r="C7" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2637,7 +2637,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="42" t="n">
-        <v>43920.0</v>
+        <v>43931.0</v>
       </c>
       <c r="G7" s="44" t="n">
         <v>0.4375</v>
@@ -2649,7 +2649,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="46" t="n">
-        <v>43923.0</v>
+        <v>43934.0</v>
       </c>
       <c r="K7" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2663,7 +2663,7 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="50" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="S7" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2689,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="51" t="n">
-        <v>43917.0</v>
+        <v>43928.0</v>
       </c>
       <c r="C8" s="62" t="n">
         <v>0.4444444444444444</v>
@@ -2701,7 +2701,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="42" t="n">
-        <v>43920.0</v>
+        <v>43931.0</v>
       </c>
       <c r="G8" s="44" t="n">
         <v>0.4791666666666667</v>
@@ -2717,7 +2717,7 @@
         <v>112</v>
       </c>
       <c r="N8" s="48" t="n">
-        <v>43925.0</v>
+        <v>43936.0</v>
       </c>
       <c r="O8" s="53" t="n">
         <v>0.4618055555555556</v>
@@ -2729,7 +2729,7 @@
         <v>137</v>
       </c>
       <c r="R8" s="50" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="S8" s="76" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
@@ -2352,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43933.0</v>
+        <v>43936.0</v>
       </c>
       <c r="C3" s="62" t="n">
         <v>0.4375</v>
@@ -2364,7 +2364,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -2380,7 +2380,7 @@
         <v>112</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43936.0</v>
+        <v>43939.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -2392,7 +2392,7 @@
         <v>137</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43949.0</v>
+        <v>43952.0</v>
       </c>
       <c r="S3" s="73" t="n">
         <v>0.4166666666666667</v>
@@ -2421,7 +2421,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43932.0</v>
+        <v>43935.0</v>
       </c>
       <c r="C4" s="60" t="n">
         <v>0.4791666666666667</v>
@@ -2433,7 +2433,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43933.0</v>
+        <v>43936.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.6875</v>
@@ -2445,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.6944444444444444</v>
@@ -2457,7 +2457,7 @@
         <v>112</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43937.0</v>
+        <v>43940.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2469,7 +2469,7 @@
         <v>138</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43941.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S4" s="76" t="n">
         <v>0.5</v>
@@ -2495,7 +2495,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="41" t="n">
-        <v>43928.0</v>
+        <v>43931.0</v>
       </c>
       <c r="C5" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2507,7 +2507,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="42" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G5" s="44" t="n">
         <v>0.4375</v>
@@ -2519,7 +2519,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="46" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K5" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2535,7 +2535,7 @@
         <v>147</v>
       </c>
       <c r="R5" s="50" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="S5" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2559,7 +2559,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="41" t="n">
-        <v>43928.0</v>
+        <v>43931.0</v>
       </c>
       <c r="C6" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2571,7 +2571,7 @@
         <v>116</v>
       </c>
       <c r="F6" s="42" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G6" s="44" t="n">
         <v>0.4375</v>
@@ -2583,7 +2583,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="46" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K6" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2599,7 +2599,7 @@
         <v>138</v>
       </c>
       <c r="R6" s="50" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="S6" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2625,7 +2625,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="41" t="n">
-        <v>43928.0</v>
+        <v>43931.0</v>
       </c>
       <c r="C7" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2637,7 +2637,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="42" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G7" s="44" t="n">
         <v>0.4375</v>
@@ -2649,7 +2649,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="46" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K7" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2663,7 +2663,7 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="50" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="S7" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2689,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="51" t="n">
-        <v>43928.0</v>
+        <v>43931.0</v>
       </c>
       <c r="C8" s="62" t="n">
         <v>0.4444444444444444</v>
@@ -2701,7 +2701,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="42" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G8" s="44" t="n">
         <v>0.4791666666666667</v>
@@ -2717,7 +2717,7 @@
         <v>112</v>
       </c>
       <c r="N8" s="48" t="n">
-        <v>43936.0</v>
+        <v>43939.0</v>
       </c>
       <c r="O8" s="53" t="n">
         <v>0.4618055555555556</v>
@@ -2729,7 +2729,7 @@
         <v>137</v>
       </c>
       <c r="R8" s="50" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="S8" s="76" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
@@ -2352,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43936.0</v>
+        <v>43942.0</v>
       </c>
       <c r="C3" s="62" t="n">
         <v>0.4375</v>
@@ -2364,7 +2364,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -2380,7 +2380,7 @@
         <v>112</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43939.0</v>
+        <v>43945.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -2392,7 +2392,7 @@
         <v>137</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43952.0</v>
+        <v>43958.0</v>
       </c>
       <c r="S3" s="73" t="n">
         <v>0.4166666666666667</v>
@@ -2421,7 +2421,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43935.0</v>
+        <v>43941.0</v>
       </c>
       <c r="C4" s="60" t="n">
         <v>0.4791666666666667</v>
@@ -2433,7 +2433,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43936.0</v>
+        <v>43942.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.6875</v>
@@ -2445,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.6944444444444444</v>
@@ -2457,7 +2457,7 @@
         <v>112</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43940.0</v>
+        <v>43946.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2469,7 +2469,7 @@
         <v>138</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43944.0</v>
+        <v>43950.0</v>
       </c>
       <c r="S4" s="76" t="n">
         <v>0.5</v>
@@ -2495,7 +2495,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="41" t="n">
-        <v>43931.0</v>
+        <v>43937.0</v>
       </c>
       <c r="C5" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2507,7 +2507,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="42" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G5" s="44" t="n">
         <v>0.4375</v>
@@ -2519,7 +2519,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="46" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K5" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2535,7 +2535,7 @@
         <v>147</v>
       </c>
       <c r="R5" s="50" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S5" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2559,7 +2559,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="41" t="n">
-        <v>43931.0</v>
+        <v>43937.0</v>
       </c>
       <c r="C6" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2571,7 +2571,7 @@
         <v>116</v>
       </c>
       <c r="F6" s="42" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G6" s="44" t="n">
         <v>0.4375</v>
@@ -2583,7 +2583,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="46" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K6" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2599,7 +2599,7 @@
         <v>138</v>
       </c>
       <c r="R6" s="50" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S6" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2625,7 +2625,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="41" t="n">
-        <v>43931.0</v>
+        <v>43937.0</v>
       </c>
       <c r="C7" s="60" t="n">
         <v>0.3541666666666667</v>
@@ -2637,7 +2637,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="42" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G7" s="44" t="n">
         <v>0.4375</v>
@@ -2649,7 +2649,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="46" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K7" s="55" t="n">
         <v>0.5798611111111112</v>
@@ -2663,7 +2663,7 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="50" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S7" s="76" t="n">
         <v>0.7083333333333334</v>
@@ -2689,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="51" t="n">
-        <v>43931.0</v>
+        <v>43937.0</v>
       </c>
       <c r="C8" s="62" t="n">
         <v>0.4444444444444444</v>
@@ -2701,7 +2701,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="42" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G8" s="44" t="n">
         <v>0.4791666666666667</v>
@@ -2717,7 +2717,7 @@
         <v>112</v>
       </c>
       <c r="N8" s="48" t="n">
-        <v>43939.0</v>
+        <v>43945.0</v>
       </c>
       <c r="O8" s="53" t="n">
         <v>0.4618055555555556</v>
@@ -2729,7 +2729,7 @@
         <v>137</v>
       </c>
       <c r="R8" s="50" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S8" s="76" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4323B0F-55CF-4947-ADD1-0989440DBD7E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANIFESTS" sheetId="4" r:id="rId1"/>
@@ -21,7 +22,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -569,7 +570,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -2201,34 +2202,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,10 +2352,10 @@
       <c r="A3" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="51" t="n">
-        <v>43942.0</v>
+      <c r="B3" s="51">
+        <v>44003</v>
       </c>
-      <c r="C3" s="62" t="n">
+      <c r="C3" s="62">
         <v>0.4375</v>
       </c>
       <c r="D3" s="62" t="s">
@@ -2363,11 +2364,11 @@
       <c r="E3" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="42" t="n">
-        <v>43943.0</v>
+      <c r="F3" s="42">
+        <v>44004</v>
       </c>
-      <c r="G3" s="44" t="n">
-        <v>0.6458333333333334</v>
+      <c r="G3" s="44">
+        <v>0.64583333333333337</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>140</v>
@@ -2379,11 +2380,11 @@
       <c r="M3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="48" t="n">
-        <v>43945.0</v>
+      <c r="N3" s="48">
+        <v>44006</v>
       </c>
-      <c r="O3" s="53" t="n">
-        <v>0.4583333333333333</v>
+      <c r="O3" s="53">
+        <v>0.45833333333333331</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>110</v>
@@ -2391,11 +2392,11 @@
       <c r="Q3" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="R3" s="49" t="n">
-        <v>43958.0</v>
+      <c r="R3" s="49">
+        <v>44019</v>
       </c>
-      <c r="S3" s="73" t="n">
-        <v>0.4166666666666667</v>
+      <c r="S3" s="73">
+        <v>0.41666666666666669</v>
       </c>
       <c r="T3" s="77" t="s">
         <v>155</v>
@@ -2420,11 +2421,11 @@
       <c r="A4" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="41" t="n">
-        <v>43941.0</v>
+      <c r="B4" s="41">
+        <v>44002</v>
       </c>
-      <c r="C4" s="60" t="n">
-        <v>0.4791666666666667</v>
+      <c r="C4" s="60">
+        <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>104</v>
@@ -2432,10 +2433,10 @@
       <c r="E4" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="43" t="n">
-        <v>43942.0</v>
+      <c r="F4" s="43">
+        <v>44003</v>
       </c>
-      <c r="G4" s="44" t="n">
+      <c r="G4" s="44">
         <v>0.6875</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2444,11 +2445,11 @@
       <c r="I4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="46" t="n">
-        <v>43944.0</v>
+      <c r="J4" s="46">
+        <v>44005</v>
       </c>
-      <c r="K4" s="55" t="n">
-        <v>0.6944444444444444</v>
+      <c r="K4" s="55">
+        <v>0.69444444444444442</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>106</v>
@@ -2456,11 +2457,11 @@
       <c r="M4" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="45" t="n">
-        <v>43946.0</v>
+      <c r="N4" s="45">
+        <v>44007</v>
       </c>
-      <c r="O4" s="52" t="n">
-        <v>0.7083333333333334</v>
+      <c r="O4" s="52">
+        <v>0.70833333333333337</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>111</v>
@@ -2468,10 +2469,10 @@
       <c r="Q4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="R4" s="50" t="n">
-        <v>43950.0</v>
+      <c r="R4" s="50">
+        <v>44011</v>
       </c>
-      <c r="S4" s="76" t="n">
+      <c r="S4" s="76">
         <v>0.5</v>
       </c>
       <c r="T4" s="37" t="s">
@@ -2494,11 +2495,11 @@
       <c r="A5" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="41" t="n">
-        <v>43937.0</v>
+      <c r="B5" s="41">
+        <v>43998</v>
       </c>
-      <c r="C5" s="60" t="n">
-        <v>0.3541666666666667</v>
+      <c r="C5" s="60">
+        <v>0.35416666666666669</v>
       </c>
       <c r="D5" s="60" t="s">
         <v>105</v>
@@ -2506,10 +2507,10 @@
       <c r="E5" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="42" t="n">
-        <v>43940.0</v>
+      <c r="F5" s="42">
+        <v>44001</v>
       </c>
-      <c r="G5" s="44" t="n">
+      <c r="G5" s="44">
         <v>0.4375</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2518,11 +2519,11 @@
       <c r="I5" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="46" t="n">
-        <v>43943.0</v>
+      <c r="J5" s="46">
+        <v>44004</v>
       </c>
-      <c r="K5" s="55" t="n">
-        <v>0.5798611111111112</v>
+      <c r="K5" s="55">
+        <v>0.57986111111111116</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>109</v>
@@ -2534,11 +2535,11 @@
       <c r="Q5" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="R5" s="50" t="n">
-        <v>43944.0</v>
+      <c r="R5" s="50">
+        <v>44005</v>
       </c>
-      <c r="S5" s="76" t="n">
-        <v>0.7083333333333334</v>
+      <c r="S5" s="76">
+        <v>0.70833333333333337</v>
       </c>
       <c r="T5" s="37" t="s">
         <v>97</v>
@@ -2558,11 +2559,11 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
-      <c r="B6" s="41" t="n">
-        <v>43937.0</v>
+      <c r="B6" s="41">
+        <v>43998</v>
       </c>
-      <c r="C6" s="60" t="n">
-        <v>0.3541666666666667</v>
+      <c r="C6" s="60">
+        <v>0.35416666666666669</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>148</v>
@@ -2570,10 +2571,10 @@
       <c r="E6" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="42" t="n">
-        <v>43940.0</v>
+      <c r="F6" s="42">
+        <v>44001</v>
       </c>
-      <c r="G6" s="44" t="n">
+      <c r="G6" s="44">
         <v>0.4375</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -2582,11 +2583,11 @@
       <c r="I6" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="46" t="n">
-        <v>43943.0</v>
+      <c r="J6" s="46">
+        <v>44004</v>
       </c>
-      <c r="K6" s="55" t="n">
-        <v>0.5798611111111112</v>
+      <c r="K6" s="55">
+        <v>0.57986111111111116</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>150</v>
@@ -2598,11 +2599,11 @@
       <c r="Q6" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="R6" s="50" t="n">
-        <v>43944.0</v>
+      <c r="R6" s="50">
+        <v>44005</v>
       </c>
-      <c r="S6" s="76" t="n">
-        <v>0.7083333333333334</v>
+      <c r="S6" s="76">
+        <v>0.70833333333333337</v>
       </c>
       <c r="T6" s="37" t="s">
         <v>151</v>
@@ -2624,11 +2625,11 @@
       <c r="A7" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="41" t="n">
-        <v>43937.0</v>
+      <c r="B7" s="41">
+        <v>43998</v>
       </c>
-      <c r="C7" s="60" t="n">
-        <v>0.3541666666666667</v>
+      <c r="C7" s="60">
+        <v>0.35416666666666669</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>153</v>
@@ -2636,10 +2637,10 @@
       <c r="E7" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="42" t="n">
-        <v>43940.0</v>
+      <c r="F7" s="42">
+        <v>44001</v>
       </c>
-      <c r="G7" s="44" t="n">
+      <c r="G7" s="44">
         <v>0.4375</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -2648,11 +2649,11 @@
       <c r="I7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="46" t="n">
-        <v>43943.0</v>
+      <c r="J7" s="46">
+        <v>44004</v>
       </c>
-      <c r="K7" s="55" t="n">
-        <v>0.5798611111111112</v>
+      <c r="K7" s="55">
+        <v>0.57986111111111116</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>109</v>
@@ -2662,11 +2663,11 @@
       <c r="O7" s="52"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="17"/>
-      <c r="R7" s="50" t="n">
-        <v>43944.0</v>
+      <c r="R7" s="50">
+        <v>44005</v>
       </c>
-      <c r="S7" s="76" t="n">
-        <v>0.7083333333333334</v>
+      <c r="S7" s="76">
+        <v>0.70833333333333337</v>
       </c>
       <c r="T7" s="37" t="s">
         <v>152</v>
@@ -2688,11 +2689,11 @@
       <c r="A8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="51" t="n">
-        <v>43937.0</v>
+      <c r="B8" s="51">
+        <v>43998</v>
       </c>
-      <c r="C8" s="62" t="n">
-        <v>0.4444444444444444</v>
+      <c r="C8" s="62">
+        <v>0.44444444444444442</v>
       </c>
       <c r="D8" s="62" t="s">
         <v>156</v>
@@ -2700,11 +2701,11 @@
       <c r="E8" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="42" t="n">
-        <v>43940.0</v>
+      <c r="F8" s="42">
+        <v>44001</v>
       </c>
-      <c r="G8" s="44" t="n">
-        <v>0.4791666666666667</v>
+      <c r="G8" s="44">
+        <v>0.47916666666666669</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>140</v>
@@ -2716,11 +2717,11 @@
       <c r="M8" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="48" t="n">
-        <v>43945.0</v>
+      <c r="N8" s="48">
+        <v>44006</v>
       </c>
-      <c r="O8" s="53" t="n">
-        <v>0.4618055555555556</v>
+      <c r="O8" s="53">
+        <v>0.46319444444444446</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>110</v>
@@ -2728,11 +2729,11 @@
       <c r="Q8" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="R8" s="50" t="n">
-        <v>43944.0</v>
+      <c r="R8" s="50">
+        <v>44005</v>
       </c>
-      <c r="S8" s="76" t="n">
-        <v>0.7083333333333334</v>
+      <c r="S8" s="76">
+        <v>0.70833333333333337</v>
       </c>
       <c r="T8" s="37" t="s">
         <v>145</v>
@@ -3345,9 +3346,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3356,11 +3357,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3435,7 +3436,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D2"/>
+  <autoFilter ref="A2:D2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
@@ -3446,7 +3447,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{2422F177-28FB-44CF-A4DE-B7E2DAB6F9D1}">
@@ -3468,7 +3469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:I1247"/>
   <sheetViews>
@@ -3479,12 +3480,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -17331,7 +17332,7 @@
       <c r="I1247" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="9">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="G1:G2"/>
@@ -17348,7 +17349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:J1387"/>
   <sheetViews>
@@ -17359,13 +17360,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -34133,7 +34134,7 @@
       <c r="J1387" s="66"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="10">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
@@ -34151,9 +34152,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -34161,8 +34162,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="6" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34377,11 +34378,11 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestWrongManifestConstraints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4323B0F-55CF-4947-ADD1-0989440DBD7E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26073A68-05E2-4755-8531-26F3DECC044A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -46,7 +46,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -1379,8 +1379,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="77">
     <dxf>
@@ -2208,7 +2208,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomLeft" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,7 +2353,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51">
-        <v>44003</v>
+        <v>44123</v>
       </c>
       <c r="C3" s="62">
         <v>0.4375</v>
@@ -2365,7 +2365,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="42">
-        <v>44004</v>
+        <v>44124</v>
       </c>
       <c r="G3" s="44">
         <v>0.64583333333333337</v>
@@ -2381,7 +2381,7 @@
         <v>112</v>
       </c>
       <c r="N3" s="48">
-        <v>44006</v>
+        <v>44126</v>
       </c>
       <c r="O3" s="53">
         <v>0.45833333333333331</v>
@@ -2393,7 +2393,7 @@
         <v>137</v>
       </c>
       <c r="R3" s="49">
-        <v>44019</v>
+        <v>44139</v>
       </c>
       <c r="S3" s="73">
         <v>0.41666666666666669</v>
@@ -2422,7 +2422,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="41">
-        <v>44002</v>
+        <v>44122</v>
       </c>
       <c r="C4" s="60">
         <v>0.47916666666666669</v>
@@ -2434,7 +2434,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="43">
-        <v>44003</v>
+        <v>44123</v>
       </c>
       <c r="G4" s="44">
         <v>0.6875</v>
@@ -2446,7 +2446,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="46">
-        <v>44005</v>
+        <v>44125</v>
       </c>
       <c r="K4" s="55">
         <v>0.69444444444444442</v>
@@ -2458,7 +2458,7 @@
         <v>112</v>
       </c>
       <c r="N4" s="45">
-        <v>44007</v>
+        <v>44127</v>
       </c>
       <c r="O4" s="52">
         <v>0.70833333333333337</v>
@@ -2470,7 +2470,7 @@
         <v>138</v>
       </c>
       <c r="R4" s="50">
-        <v>44011</v>
+        <v>44131</v>
       </c>
       <c r="S4" s="76">
         <v>0.5</v>
@@ -2496,7 +2496,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="41">
-        <v>43998</v>
+        <v>44118</v>
       </c>
       <c r="C5" s="60">
         <v>0.35416666666666669</v>
@@ -2508,7 +2508,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="42">
-        <v>44001</v>
+        <v>44121</v>
       </c>
       <c r="G5" s="44">
         <v>0.4375</v>
@@ -2520,7 +2520,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="46">
-        <v>44004</v>
+        <v>44124</v>
       </c>
       <c r="K5" s="55">
         <v>0.57986111111111116</v>
@@ -2536,7 +2536,7 @@
         <v>147</v>
       </c>
       <c r="R5" s="50">
-        <v>44005</v>
+        <v>44125</v>
       </c>
       <c r="S5" s="76">
         <v>0.70833333333333337</v>
@@ -2560,7 +2560,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="41">
-        <v>43998</v>
+        <v>44118</v>
       </c>
       <c r="C6" s="60">
         <v>0.35416666666666669</v>
@@ -2572,7 +2572,7 @@
         <v>116</v>
       </c>
       <c r="F6" s="42">
-        <v>44001</v>
+        <v>44121</v>
       </c>
       <c r="G6" s="44">
         <v>0.4375</v>
@@ -2584,7 +2584,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="46">
-        <v>44004</v>
+        <v>44124</v>
       </c>
       <c r="K6" s="55">
         <v>0.57986111111111116</v>
@@ -2600,7 +2600,7 @@
         <v>138</v>
       </c>
       <c r="R6" s="50">
-        <v>44005</v>
+        <v>44125</v>
       </c>
       <c r="S6" s="76">
         <v>0.70833333333333337</v>
@@ -2626,7 +2626,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="41">
-        <v>43998</v>
+        <v>44118</v>
       </c>
       <c r="C7" s="60">
         <v>0.35416666666666669</v>
@@ -2638,7 +2638,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="42">
-        <v>44001</v>
+        <v>44121</v>
       </c>
       <c r="G7" s="44">
         <v>0.4375</v>
@@ -2650,7 +2650,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="46">
-        <v>44004</v>
+        <v>44124</v>
       </c>
       <c r="K7" s="55">
         <v>0.57986111111111116</v>
@@ -2664,7 +2664,7 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="50">
-        <v>44005</v>
+        <v>44125</v>
       </c>
       <c r="S7" s="76">
         <v>0.70833333333333337</v>
@@ -2690,7 +2690,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="51">
-        <v>43998</v>
+        <v>44118</v>
       </c>
       <c r="C8" s="62">
         <v>0.44444444444444442</v>
@@ -2702,7 +2702,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="42">
-        <v>44001</v>
+        <v>44121</v>
       </c>
       <c r="G8" s="44">
         <v>0.47916666666666669</v>
@@ -2718,7 +2718,7 @@
         <v>112</v>
       </c>
       <c r="N8" s="48">
-        <v>44006</v>
+        <v>44126</v>
       </c>
       <c r="O8" s="53">
         <v>0.46319444444444446</v>
@@ -2730,7 +2730,7 @@
         <v>137</v>
       </c>
       <c r="R8" s="50">
-        <v>44005</v>
+        <v>44125</v>
       </c>
       <c r="S8" s="76">
         <v>0.70833333333333337</v>
